--- a/biology/Zoologie/Coenites/Coenites.xlsx
+++ b/biology/Zoologie/Coenites/Coenites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenites est un genre éteint de coraux de la famille éteinte des Coenitidae, de l'ordre éteint des Favositida et de la sous-classe éteinte des Tabulata ou coraux tabulés.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces se retrouvent dans des terrains datant du Silurien au Carbonifère, avec une répartition mondiale.
 Selon Fossilworks, il y a 3 espèces: † Coenites dunginensis Sharkova, 1981, † Coenites juniperinus (type) et † Coenites sharaobensis Sharkova, 1981. 
 Pour Interim Register of Marine and Nonmarine Genera, il y a 8 espèces : † Coenites clathratus Haime &amp; Milne-Edwards, † Coenites crassus (Rominger), † Coenites expansus De Koninck, 1876, † Coenites gippslandica Chapman, 1907, † Coenites interlextus Eichwald, † Coenites intertextus Eichwald, † Coenites juniperinus Haime &amp; Milne-Edwards et † Coenites linearis Haime &amp; Milne-Edwards.
-L'espèce † Coenites elegans a été quant à elle décrite par Mironova en 1974 dans l'Altaï[2].
+L'espèce † Coenites elegans a été quant à elle décrite par Mironova en 1974 dans l'Altaï.
 </t>
         </is>
       </c>
